--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/singhm/Desktop/taleem/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696AB59B-628B-E245-AB09-91BDBE02AB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A897F6-552D-3641-8962-11069531A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{C0EF84C7-0A42-2F4F-8376-4AAB24DAAB94}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{C0EF84C7-0A42-2F4F-8376-4AAB24DAAB94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,6 +34,83 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>Arora</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer Added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Raman Arora</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Ishita</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sehgal</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,13 +459,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8733ED-EC33-FB43-8E63-E31760429908}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2331B4-65AE-7E46-B619-E1F3B9AC1889}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8733ED-EC33-FB43-8E63-E31760429908}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E93A4D-2B6C-D042-AE6F-87B18EBCECB3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>